--- a/Consumer/Lululemon Athletica.xlsx
+++ b/Consumer/Lululemon Athletica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC70756-C0D3-534C-A3CC-91F5ECA14397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E8ADF5-EFF4-0F4B-8386-8F57F31AF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1698,7 +1698,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1732,11 +1735,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1754,7 +1760,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1766,6 +1772,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1891,11 +1900,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>439.76</v>
+    <v>493.8</v>
     <v>286.57499999999999</v>
-    <v>1.3384</v>
-    <v>10.62</v>
-    <v>2.4829E-2</v>
+    <v>1.3613</v>
+    <v>24.97</v>
+    <v>5.3737000000000007E-2</v>
+    <v>1.07</v>
+    <v>2.1849999999999999E-3</v>
     <v>USD</v>
     <v>lululemon athletica inc. is engaged in the design, distribution, and retail of technical athletic apparel, footwear, and accessories. The Company’s segments include company-operated stores and direct to consumer. Its apparel assortment includes items, such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities, such as yoga, running, training, and other activities. It also offers apparel designed for being on the move and fitness-inspired accessories. Its technical athletic apparel, footwear, and accessories, which are sold through a chain of company-operated stores, direct to consumers through e-commerce, outlets, sales to wholesale accounts, license and supply arrangements, recommence, and sales from temporary locations. It also offers in-home connected fitness and associated content subscriptions through lululemon Studio. It operates stores in the United States, Canada, Australia, the United Kingdom, South Korea, Germany and others.</v>
     <v>34000</v>
@@ -1903,24 +1914,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>439.76</v>
+    <v>493.8</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45259.879384849221</v>
+    <v>45269.041395763285</v>
     <v>0</v>
-    <v>428.59500000000003</v>
-    <v>55469335020</v>
+    <v>448.81</v>
+    <v>58799920000</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>429.2</v>
-    <v>55.516100000000002</v>
-    <v>427.73</v>
-    <v>438.35</v>
+    <v>455.88</v>
+    <v>59.124600000000001</v>
+    <v>464.67</v>
+    <v>489.64</v>
+    <v>490.71</v>
     <v>126541200</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>1449</v>
-    <v>1174003</v>
+    <v>7144393</v>
+    <v>1409696</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1952,6 +1964,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1972,6 +1986,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1988,7 +2003,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1999,13 +2014,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2071,13 +2089,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2122,6 +2146,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2129,6 +2156,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -14013,7 +14043,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14066,7 +14096,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>55469335020</v>
+        <v>58799920000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>202</v>
@@ -14094,7 +14124,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>27064504923.008503</v>
+        <v>29720858587.561169</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>206</v>
@@ -14146,14 +14176,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>22367659974.824192</v>
+        <v>24237294137.566593</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>213</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.4829E-2</v>
+        <v>5.3737000000000007E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>214</v>
@@ -14177,7 +14207,7 @@
       </c>
       <c r="C5" s="47">
         <f>F14</f>
-        <v>0.16097357150318603</v>
+        <v>0.161391413350047</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>217</v>
@@ -14198,14 +14228,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>22219178974.824192</v>
+        <v>24088813137.566593</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>220</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>438.35</v>
+        <v>489.64</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>221</v>
@@ -14225,14 +14255,14 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>5.7943523472265746</v>
+        <v>6.1422667920192211</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="47">
         <f>F17</f>
-        <v>0.1070719732581218</v>
+        <v>0.10759427556669801</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>200</v>
@@ -14253,14 +14283,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.5518563167119805E-2</v>
+        <v>9.6320281470170604E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>226</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>178.41554862570396</v>
+        <v>193.42833578822709</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>227</v>
@@ -14280,14 +14310,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>35.995674899415967</v>
+        <v>38.058200647249194</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>229</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>1.8478678347783085E-2</v>
+        <v>1.751703063541583E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>230</v>
@@ -14314,7 +14344,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.59298380603238521</v>
+        <v>-0.60495805941461667</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>233</v>
@@ -14419,16 +14449,16 @@
         <v>9573000000</v>
       </c>
       <c r="G10" s="82">
-        <v>10886000000</v>
+        <v>10911000000</v>
       </c>
       <c r="H10" s="82">
-        <v>12250000000</v>
+        <v>12316000000</v>
       </c>
       <c r="I10" s="82">
-        <v>13280000000</v>
+        <v>13401000000</v>
       </c>
       <c r="J10" s="83">
-        <v>14725000000</v>
+        <v>15000000000</v>
       </c>
       <c r="K10" s="84" t="s">
         <v>237</v>
@@ -14466,23 +14496,23 @@
       </c>
       <c r="G11" s="86">
         <f t="shared" si="0"/>
-        <v>0.13715658623211113</v>
+        <v>0.13976809777499222</v>
       </c>
       <c r="H11" s="86">
         <f t="shared" si="0"/>
-        <v>0.12529854859452505</v>
+        <v>0.12876913206855467</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="0"/>
-        <v>8.4081632653061122E-2</v>
+        <v>8.8096784670347539E-2</v>
       </c>
       <c r="J11" s="88">
         <f t="shared" si="0"/>
-        <v>0.10881024096385539</v>
+        <v>0.11931945377210651</v>
       </c>
       <c r="K11" s="88">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.12713323879504582</v>
+        <v>0.13125453076353547</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
@@ -14514,19 +14544,19 @@
         <v>854800000</v>
       </c>
       <c r="F12" s="90">
-        <v>1541000000</v>
+        <v>1545000000</v>
       </c>
       <c r="G12" s="82">
-        <v>1755000000</v>
+        <v>1760000000</v>
       </c>
       <c r="H12" s="82">
-        <v>2022000000</v>
+        <v>2024000000</v>
       </c>
       <c r="I12" s="82">
         <v>2187000000</v>
       </c>
       <c r="J12" s="83">
-        <v>2533000000</v>
+        <v>2600000000</v>
       </c>
       <c r="K12" s="91" t="s">
         <v>240</v>
@@ -14561,27 +14591,27 @@
       </c>
       <c r="F13" s="87">
         <f t="shared" si="1"/>
-        <v>0.80276087973795041</v>
+        <v>0.8074403369209171</v>
       </c>
       <c r="G13" s="86">
         <f t="shared" si="1"/>
-        <v>0.13887086307592478</v>
+        <v>0.13915857605177995</v>
       </c>
       <c r="H13" s="86">
         <f t="shared" si="1"/>
-        <v>0.15213675213675204</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="I13" s="86">
         <f t="shared" si="1"/>
-        <v>8.1602373887240454E-2</v>
+        <v>8.0533596837944588E-2</v>
       </c>
       <c r="J13" s="88">
         <f t="shared" si="1"/>
-        <v>0.15820759030635578</v>
+        <v>0.18884316415180602</v>
       </c>
       <c r="K13" s="88">
         <f>AVERAGE(F13:J13)</f>
-        <v>0.26671569182884469</v>
+        <v>0.27319513479248952</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -14615,23 +14645,23 @@
       </c>
       <c r="F14" s="94">
         <f t="shared" si="2"/>
-        <v>0.16097357150318603</v>
+        <v>0.161391413350047</v>
       </c>
       <c r="G14" s="93">
         <f t="shared" si="2"/>
-        <v>0.16121624104354215</v>
+        <v>0.16130510493996883</v>
       </c>
       <c r="H14" s="93">
         <f t="shared" si="2"/>
-        <v>0.1650612244897959</v>
+        <v>0.16433907112698928</v>
       </c>
       <c r="I14" s="93">
         <f t="shared" si="2"/>
-        <v>0.16468373493975905</v>
+        <v>0.16319677635997312</v>
       </c>
       <c r="J14" s="95">
         <f t="shared" si="2"/>
-        <v>0.17202037351443125</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="72"/>
@@ -14641,7 +14671,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14664,19 +14694,19 @@
         <v>327806000</v>
       </c>
       <c r="F15" s="90">
-        <v>1025000000</v>
+        <v>1030000000</v>
       </c>
       <c r="G15" s="82">
-        <v>1220000000</v>
+        <v>1230000000</v>
       </c>
       <c r="H15" s="82">
-        <v>1359000000</v>
+        <v>1431000000</v>
       </c>
       <c r="I15" s="82">
-        <v>1513000000</v>
+        <v>1613000000</v>
       </c>
       <c r="J15" s="83">
-        <v>1862000000</v>
+        <v>2068000000</v>
       </c>
       <c r="K15" s="91" t="s">
         <v>245</v>
@@ -14711,27 +14741,27 @@
       </c>
       <c r="F16" s="87">
         <f t="shared" si="3"/>
-        <v>2.1268494170332453</v>
+        <v>2.1421023410187732</v>
       </c>
       <c r="G16" s="86">
         <f t="shared" si="3"/>
-        <v>0.19024390243902434</v>
+        <v>0.19417475728155331</v>
       </c>
       <c r="H16" s="86">
         <f t="shared" si="3"/>
-        <v>0.11393442622950811</v>
+        <v>0.16341463414634139</v>
       </c>
       <c r="I16" s="86">
         <f t="shared" si="3"/>
-        <v>0.11331861662987497</v>
+        <v>0.12718378756114612</v>
       </c>
       <c r="J16" s="88">
         <f t="shared" si="3"/>
-        <v>0.23066754791804356</v>
+        <v>0.28208307501549901</v>
       </c>
       <c r="K16" s="88">
         <f>AVERAGE(F16:J16)</f>
-        <v>0.55500278204993925</v>
+        <v>0.58179171900466264</v>
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
@@ -14767,23 +14797,23 @@
       </c>
       <c r="F17" s="93">
         <f t="shared" si="4"/>
-        <v>0.1070719732581218</v>
+        <v>0.10759427556669801</v>
       </c>
       <c r="G17" s="93">
         <f t="shared" si="4"/>
-        <v>0.11207054932941393</v>
+        <v>0.11273027220236459</v>
       </c>
       <c r="H17" s="93">
         <f t="shared" si="4"/>
-        <v>0.11093877551020408</v>
+        <v>0.11619032153296525</v>
       </c>
       <c r="I17" s="93">
         <f t="shared" si="4"/>
-        <v>0.11393072289156626</v>
+        <v>0.12036415192896052</v>
       </c>
       <c r="J17" s="95">
         <f t="shared" si="4"/>
-        <v>0.12645161290322582</v>
+        <v>0.13786666666666667</v>
       </c>
       <c r="K17" s="95"/>
       <c r="L17" s="72"/>
@@ -14793,7 +14823,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14876,24 +14906,24 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>55469335020</v>
+        <v>58799920000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Textiles &amp; Apparel</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="120" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2005</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
@@ -14906,7 +14936,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>56568423020</v>
+        <v>59899008000</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14934,7 +14964,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>1.9429355483560375E-2</v>
+        <v>1.8349018401106074E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14959,7 +14989,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.9805706445164396</v>
+        <v>0.98165098159889397</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -15003,7 +15033,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5518563167119805E-2</v>
+        <v>9.6320281470170604E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
